--- a/group/003.xlsx
+++ b/group/003.xlsx
@@ -1381,22 +1381,26 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1749,13 +1753,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AFN181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="R4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
